--- a/MainTop/09.05.2025/add tanuya/add_таня.xlsx
+++ b/MainTop/09.05.2025/add tanuya/add_таня.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\09.05.2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\09.05.2025\add tanuya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BF925E-74DC-48D1-B9BC-AFDE5402A27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CCC1C7-DDBA-45EA-8237-E1037E770DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Термонаклейка Бабочки 4шт небо внутри</t>
   </si>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,42 +400,58 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B8">
         <v>6</v>
-      </c>
-      <c r="B6">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
